--- a/excel_bin/姓名角色表.xlsx
+++ b/excel_bin/姓名角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\PythonProject3\excel_bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5460A11-C3E4-4308-9784-C9129C5BFC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5320E2-BAEC-41BC-AB46-CE25F37A2A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>张翼飞</t>
   </si>
@@ -285,6 +285,22 @@
   </si>
   <si>
     <t>管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人员、2026接口工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人员、1818接口工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人员、1907接口工程师、2306接口工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人员、2016接口工程师</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,13 +687,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,7 +981,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1053,7 +1069,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,7 +1085,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">

--- a/excel_bin/姓名角色表.xlsx
+++ b/excel_bin/姓名角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\PythonProject3\excel_bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5320E2-BAEC-41BC-AB46-CE25F37A2A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4FB0B-C46A-44FD-8C68-945183900798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>管理员</t>
-  </si>
-  <si>
-    <t>管理员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -301,6 +298,10 @@
   </si>
   <si>
     <t>设计人员、2016接口工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所领导</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -981,7 +982,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,7 +1070,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,7 +1086,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1293,7 +1294,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1301,7 +1302,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1309,7 +1310,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1317,7 +1318,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1325,7 +1326,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">

--- a/excel_bin/姓名角色表.xlsx
+++ b/excel_bin/姓名角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\PythonProject3\excel_bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4FB0B-C46A-44FD-8C68-945183900798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05206293-51FC-4575-A7B3-6F49963286EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>张翼飞</t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>所领导</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人员、1915接口工程师</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
